--- a/購買分析結果.xlsx
+++ b/購買分析結果.xlsx
@@ -413,7 +413,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D15"/>
+  <dimension ref="A1:D29"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,7 +424,7 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>2023年</t>
+          <t>2021年</t>
         </is>
       </c>
     </row>
@@ -462,72 +462,72 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>103</v>
+        <v>54</v>
       </c>
       <c r="B5" t="n">
-        <v>8.5</v>
+        <v>8.23</v>
       </c>
       <c r="C5" t="n">
-        <v>117647</v>
+        <v>121506</v>
       </c>
       <c r="D5" t="n">
-        <v>999999.5</v>
+        <v>999994.38</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="B6" t="n">
-        <v>9.699999999999999</v>
+        <v>9.99</v>
       </c>
       <c r="C6" t="n">
-        <v>103092</v>
+        <v>100100</v>
       </c>
       <c r="D6" t="n">
-        <v>999992.3999999999</v>
+        <v>999999</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>15</v>
+        <v>103</v>
       </c>
       <c r="B7" t="n">
-        <v>9.779999999999999</v>
+        <v>10</v>
       </c>
       <c r="C7" t="n">
-        <v>102249</v>
+        <v>100000</v>
       </c>
       <c r="D7" t="n">
-        <v>999995.22</v>
+        <v>1000000</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>38</v>
+        <v>50</v>
       </c>
       <c r="B8" t="n">
-        <v>10.45</v>
+        <v>10.15</v>
       </c>
       <c r="C8" t="n">
-        <v>95693</v>
+        <v>98522</v>
       </c>
       <c r="D8" t="n">
-        <v>999991.85</v>
+        <v>999998.3</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>48</v>
+        <v>16</v>
       </c>
       <c r="B9" t="n">
-        <v>11.3</v>
+        <v>10.2</v>
       </c>
       <c r="C9" t="n">
-        <v>88495</v>
+        <v>98039</v>
       </c>
       <c r="D9" t="n">
-        <v>999993.5000000001</v>
+        <v>999997.7999999999</v>
       </c>
     </row>
     <row r="11">
@@ -537,17 +537,136 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>27.53000000002794</v>
+        <v>10.52000000013504</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
+          <t>2022年</t>
+        </is>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="inlineStr">
+        <is>
+          <t>原有資金</t>
+        </is>
+      </c>
+      <c r="B16" t="n">
+        <v>6539528.61</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="inlineStr">
+        <is>
+          <t>購買編號</t>
+        </is>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>股價</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>股數</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>總價</t>
+        </is>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="n">
+        <v>50</v>
+      </c>
+      <c r="B19" t="n">
+        <v>8.92</v>
+      </c>
+      <c r="C19" t="n">
+        <v>146626</v>
+      </c>
+      <c r="D19" t="n">
+        <v>1307903.92</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="n">
+        <v>51</v>
+      </c>
+      <c r="B20" t="n">
+        <v>9.07</v>
+      </c>
+      <c r="C20" t="n">
+        <v>144201</v>
+      </c>
+      <c r="D20" t="n">
+        <v>1307903.07</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="n">
+        <v>103</v>
+      </c>
+      <c r="B21" t="n">
+        <v>9.210000000000001</v>
+      </c>
+      <c r="C21" t="n">
+        <v>142009</v>
+      </c>
+      <c r="D21" t="n">
+        <v>1307902.89</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="n">
+        <v>35.1</v>
+      </c>
+      <c r="C22" t="n">
+        <v>37262</v>
+      </c>
+      <c r="D22" t="n">
+        <v>1307896.2</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="n">
+        <v>15</v>
+      </c>
+      <c r="B23" t="n">
+        <v>11.1</v>
+      </c>
+      <c r="C23" t="n">
+        <v>117829</v>
+      </c>
+      <c r="D23" t="n">
+        <v>1307901.9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>剩餘資金</t>
+        </is>
+      </c>
+      <c r="B25" t="n">
+        <v>20.63000000012107</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="inlineStr">
+        <is>
           <t>最終資金</t>
         </is>
       </c>
-      <c r="B15" t="n">
-        <v>5000000</v>
+      <c r="B29" t="n">
+        <v>6787963.45</v>
       </c>
     </row>
   </sheetData>
